--- a/results/I3_N5_M3_T45_C150_DepCentral_s3_P1_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepCentral_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>942.1892728190976</v>
+        <v>1570.204899660161</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.08999080920084</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.300554388190483</v>
+        <v>14.53978881378947</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>851.2200000000061</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>33.10555953090582</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.10555953090582</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>40.92773953394845</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>35.4627824732683</v>
+        <v>15.33301651610694</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>38.40611391909631</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32.62482380361045</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1157,15 +1157,85 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1268,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>105.41</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>91.01999999999948</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.99</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10">
@@ -1301,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>94.90000000000001</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>98.595</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
@@ -1323,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>191.1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
@@ -1334,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>187.88</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -1345,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>186.1199999999998</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
@@ -1356,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>184.775</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -1367,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>185.1349999999998</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
@@ -1378,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18">
@@ -1389,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19">
@@ -1400,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20">
@@ -1411,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22">
@@ -1433,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>67.32000000000029</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1444,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>76.2050000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1455,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>81.1900000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.59000000000029</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1477,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.58500000000029</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1488,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>237.0750000000005</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>233.3250000000007</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1510,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>228.4800000000005</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1521,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>240.0950000000007</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1532,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>236.6350000000005</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1543,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33">
@@ -1554,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
@@ -1565,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35">
@@ -1576,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36">
@@ -1587,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37">
@@ -1598,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>237.0750000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1609,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>233.3250000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1620,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>228.4800000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1631,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>240.0950000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1642,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>236.6350000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1653,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>67.32000000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1664,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>76.2050000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1675,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>81.1900000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1686,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>70.59000000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1697,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>74.58500000000029</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
@@ -1755,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4">
@@ -1766,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
@@ -1777,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -1788,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
@@ -1799,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>87.07500000000053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1810,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>83.32500000000073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1821,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>78.48000000000053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1832,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>90.09500000000074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1843,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>86.6350000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2055,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2066,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2077,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2088,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2099,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2110,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2121,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2132,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2154,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2165,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2176,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2187,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2198,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2209,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,7 +2320,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2261,7 +2331,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2272,7 +2342,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2283,7 +2353,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2294,7 +2364,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2305,7 +2375,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2316,7 +2386,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2327,7 +2397,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2338,7 +2408,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2349,12 +2419,67 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
